--- a/模型訓練過程/kong模型.xlsx
+++ b/模型訓練過程/kong模型.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\模型訓練過程\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E356846-7ACC-439A-A90B-E8E9DD19644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,88 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>模型類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>層數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優化器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdamW</t>
+  </si>
+  <si>
+    <t>訓練時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練最高準確率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗證總準確率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定時儲存訓練時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>040:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>043:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +128,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +417,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45726.583333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.50270000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.53125</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.49859999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.51149999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.65625</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.49869999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.50080000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.50549999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.78125</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/模型訓練過程/kong模型.xlsx
+++ b/模型訓練過程/kong模型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\模型訓練過程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E356846-7ACC-439A-A90B-E8E9DD19644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA5492C-A541-4000-9E7D-CEEEA71C9CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22920" yWindow="120" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,6 +567,9 @@
       <c r="B12" s="6">
         <v>0.8125</v>
       </c>
+      <c r="C12" s="6">
+        <v>0.57079999999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -575,6 +578,9 @@
       <c r="B13" s="6">
         <v>0.84375</v>
       </c>
+      <c r="C13" s="6">
+        <v>0.59370000000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -612,6 +618,9 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
